--- a/data2.xlsx
+++ b/data2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sonnyparsonage/Documents/upscaling/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sonnyparsonage/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="2180" windowWidth="27360" windowHeight="15880" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,10 +31,17 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -63,35 +70,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color theme="9"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -105,8 +84,32 @@
         <color auto="1"/>
       </right>
       <top style="thin">
+        <color rgb="FFF79646"/>
+      </top>
+      <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF79646"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -118,22 +121,22 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -415,8 +418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B60"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -457,132 +460,132 @@
       <c r="A5" s="3">
         <v>100</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="4">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
+      <c r="A6" s="5">
         <v>55</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="4">
         <v>5.5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
+      <c r="A7" s="3">
         <v>65</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="4">
         <v>6.5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
+      <c r="A8" s="3">
         <v>45</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="4">
         <v>4.5</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
+      <c r="A9" s="3">
         <v>35</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="4">
         <v>3.5</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
+      <c r="A10" s="3">
         <v>150</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="4">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
+      <c r="A11" s="5">
         <v>60</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="4">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
+      <c r="A12" s="3">
         <v>68</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="4">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
+      <c r="A13" s="3">
         <v>100</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="4">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
+      <c r="A14" s="3">
         <v>120</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="4">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
+      <c r="A15" s="3">
         <v>200</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="4">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
+      <c r="A16" s="5">
         <v>60</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="4">
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
+      <c r="A17" s="3">
         <v>60</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="4">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
+      <c r="A18" s="3">
         <v>150</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="4">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
+      <c r="A19" s="3">
         <v>200</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="4">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
+      <c r="A20" s="3">
         <v>300</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="4">
         <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
+      <c r="A21" s="3">
         <v>200</v>
       </c>
       <c r="B21" s="6">
@@ -590,7 +593,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="5">
+      <c r="A22" s="3">
         <v>150</v>
       </c>
       <c r="B22" s="6">
@@ -598,7 +601,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="5">
+      <c r="A23" s="3">
         <v>160</v>
       </c>
       <c r="B23" s="6">
@@ -606,7 +609,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="5">
+      <c r="A24" s="3">
         <v>100</v>
       </c>
       <c r="B24" s="6">
@@ -614,7 +617,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="5">
+      <c r="A25" s="3">
         <v>200</v>
       </c>
       <c r="B25" s="6">
@@ -622,127 +625,127 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="5">
+      <c r="A26" s="3">
         <v>220</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="4">
         <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="5">
+      <c r="A27" s="3">
         <v>100</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="5">
+      <c r="A28" s="3">
         <v>90</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="4">
         <v>0.9</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="5">
+      <c r="A29" s="3">
         <v>80</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="4">
         <v>0.8</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="5">
+      <c r="A30" s="3">
         <v>280</v>
       </c>
-      <c r="B30" s="2">
-        <v>2.8000000000000003</v>
+      <c r="B30" s="4">
+        <v>2.8</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="5">
+      <c r="A31" s="3">
         <v>250</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="4">
         <v>2.5</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="5">
+      <c r="A32" s="3">
         <v>200</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="5">
+      <c r="A33" s="3">
         <v>120</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="4">
         <v>1.2</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="5">
+      <c r="A34" s="3">
         <v>90</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="4">
         <v>0.9</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="5">
+      <c r="A35" s="3">
         <v>400</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="5">
+      <c r="A36" s="3">
         <v>300</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="5">
+      <c r="A37" s="3">
         <v>250</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="4">
         <v>2.5</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="5">
+      <c r="A38" s="3">
         <v>300</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="5">
+      <c r="A39" s="3">
         <v>400</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="5">
+      <c r="A40" s="3">
         <v>600</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="4">
         <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="5">
+      <c r="A41" s="3">
         <v>75</v>
       </c>
       <c r="B41" s="6">
@@ -750,7 +753,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="5">
+      <c r="A42" s="3">
         <v>60</v>
       </c>
       <c r="B42" s="6">
@@ -758,15 +761,15 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="5">
+      <c r="A43" s="3">
         <v>70</v>
       </c>
       <c r="B43" s="6">
-        <v>1.4000000000000001</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="5">
+      <c r="A44" s="3">
         <v>55</v>
       </c>
       <c r="B44" s="6">
@@ -774,7 +777,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="5">
+      <c r="A45" s="3">
         <v>90</v>
       </c>
       <c r="B45" s="6">
@@ -782,7 +785,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="5">
+      <c r="A46" s="3">
         <v>80</v>
       </c>
       <c r="B46" s="6">
@@ -790,7 +793,7 @@
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="5">
+      <c r="A47" s="3">
         <v>50</v>
       </c>
       <c r="B47" s="6">
@@ -798,7 +801,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="5">
+      <c r="A48" s="3">
         <v>40</v>
       </c>
       <c r="B48" s="6">
@@ -806,15 +809,15 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="5">
+      <c r="A49" s="3">
         <v>35</v>
       </c>
       <c r="B49" s="6">
-        <v>0.70000000000000007</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="5">
+      <c r="A50" s="3">
         <v>130</v>
       </c>
       <c r="B50" s="6">
@@ -822,7 +825,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="5">
+      <c r="A51" s="3">
         <v>90</v>
       </c>
       <c r="B51" s="6">
@@ -830,7 +833,7 @@
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="5">
+      <c r="A52" s="3">
         <v>80</v>
       </c>
       <c r="B52" s="6">
@@ -838,7 +841,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="5">
+      <c r="A53" s="3">
         <v>65</v>
       </c>
       <c r="B53" s="6">
@@ -846,7 +849,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="5">
+      <c r="A54" s="3">
         <v>65</v>
       </c>
       <c r="B54" s="6">
@@ -854,7 +857,7 @@
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="5">
+      <c r="A55" s="3">
         <v>180</v>
       </c>
       <c r="B55" s="6">
@@ -862,43 +865,43 @@
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="5">
+      <c r="A56" s="3">
         <v>110</v>
       </c>
       <c r="B56" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
+        <v>90</v>
+      </c>
+      <c r="B57" s="6">
         <v>1.8</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="5">
-        <v>90</v>
-      </c>
-      <c r="B57" s="6">
-        <v>1.6</v>
-      </c>
-    </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="5">
+      <c r="A58" s="3">
         <v>135</v>
       </c>
       <c r="B58" s="6">
-        <v>1.3</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="5">
+      <c r="A59" s="3">
         <v>180</v>
       </c>
       <c r="B59" s="6">
-        <v>1.3</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="5">
+      <c r="A60" s="3">
         <v>270</v>
       </c>
       <c r="B60" s="6">
-        <v>3.6</v>
+        <v>5.4</v>
       </c>
     </row>
   </sheetData>
